--- a/資料/データ.xlsx
+++ b/資料/データ.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="カラー研究" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,23 +18,156 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>#005595</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#19244a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#57bda8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#f6f9e4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#ddf1fc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#a24389</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#e5e647</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#4ebfd6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF005595"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4EBFD6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19244A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF57BDA8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDF1FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA24389"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5E647"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,14 +182,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE5E647"/>
+      <color rgb="FFA24389"/>
+      <color rgb="FFDDF1FC"/>
+      <color rgb="FFDDF1FD"/>
+      <color rgb="FF000000"/>
+      <color rgb="FFF6F9E4"/>
+      <color rgb="FF57BDA8"/>
+      <color rgb="FF19244A"/>
+      <color rgb="FF4EBFD6"/>
+      <color rgb="FF005595"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -69,7 +276,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +321,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +356,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +538,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="6" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+    </row>
+    <row r="3" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="11"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="17"/>
+    </row>
+    <row r="4" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="11"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="17"/>
+    </row>
+    <row r="5" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>